--- a/hardware/pcb/Cape/Project Outputs for Cape/BOM/Bill of Materials-Cape-pcbcart_v1.xlsx
+++ b/hardware/pcb/Cape/Project Outputs for Cape/BOM/Bill of Materials-Cape-pcbcart_v1.xlsx
@@ -539,27 +539,12 @@
     <t>N-Channel OptiMOS 2 Small-Signal-Transistor, 20 V VDS, 1.5Â A ID, -55 to 150 degC, PG-SOT-323, Reel, Green</t>
   </si>
   <si>
-    <t>CAP 47uF 16V Â±20% 1210 (3225 Metric) Thickness 2.8mm SMD</t>
-  </si>
-  <si>
-    <t>CAP 22uF 6.3V Â±10% 0805 (2012 Metric) Thickness 1.45mm SMD</t>
-  </si>
-  <si>
-    <t>CAP 10uF 10V Â±20% 0603 (1608 Metric) Thickness 1mm SMD</t>
-  </si>
-  <si>
-    <t>CAP 1uF 16V Â±20% 0402 (1005 Metric) Thickness 0.6mm SMD</t>
-  </si>
-  <si>
     <t>CAP 220nF 10V -20% to +80% 0402 (1005 Metric) Thickness 0.6mm SMD</t>
   </si>
   <si>
     <t>CAP 100nF 16V -20% to +80% 0402 (1005 Metric) Thickness 0.6mm SMD</t>
   </si>
   <si>
-    <t>CAP 1nF 50V Â±5% 0402 (1005 Metric) Thickness 0.6mm SMD</t>
-  </si>
-  <si>
     <t>205K 0.063W 1% 0402 (1005 Metric)  SMD</t>
   </si>
   <si>
@@ -818,9 +803,6 @@
     <t>Analog to Digital Converters - ADC 8-Channel, 24-Bit, AFE</t>
   </si>
   <si>
-    <t>SP Amp Zero Drift Amplifier Dual R-R I/O Â±27.5V/55V 8-Pin MSOP</t>
-  </si>
-  <si>
     <t>Fuse Chip Very Fast Acting 2.5A 32V SMD Solder Pad 0603</t>
   </si>
   <si>
@@ -965,45 +947,6 @@
     <t>Conn Unshrouded Header HDR 7 POS 2.54mm Solder ST Thru-Hole</t>
   </si>
   <si>
-    <t>10K, 25ppm/Â°C 0402 (1005 Metric) Chip Resistor</t>
-  </si>
-  <si>
-    <t>133R, 25ppm/Â°C, 0402 (1005 Metric) Chip Resistor</t>
-  </si>
-  <si>
-    <t>3K9, 25ppm/Â°C, 0402 (1005 Metric) Chip Resistor</t>
-  </si>
-  <si>
-    <t>680R, 25ppm/Â°C 0402 (1005 Metric) Chip Resistor</t>
-  </si>
-  <si>
-    <t>CAP 33nF 16V Â±5%, 0402 (1005 Metric) Chip Capacitor</t>
-  </si>
-  <si>
-    <t>CAP 100uF 16V Â±20% 1210 (3225 Metric) SMD</t>
-  </si>
-  <si>
-    <t>CAP 10nF 25V Â±5% 0402 (1005 Metric) Thickness 0.6mm SMD</t>
-  </si>
-  <si>
-    <t>CAP 4.7nF 50V Â±20% 0402 (1005 Metric) Thickness 0.6mm SMD</t>
-  </si>
-  <si>
-    <t>CAP 2.2nF 50V Â±5% 0402 (1005 Metric) Thickness 0.6mm SMD</t>
-  </si>
-  <si>
-    <t>CAP 470pF 50V Â±5% 0402 (1005 Metric) Thickness 0.6mm SMD</t>
-  </si>
-  <si>
-    <t>CAP 120pF 50V Â±5% 0402 (1005 Metric) Thickness 0.6mm SMD</t>
-  </si>
-  <si>
-    <t>CAP 56pF 50V Â±5% 0402 (1005 Metric) Thickness 0.6mm SMD</t>
-  </si>
-  <si>
-    <t>CAP 10pF 50V Â±5% 0402 (1005 Metric) Thickness 0.6mm SMD</t>
-  </si>
-  <si>
     <t>60K4 0.063W 1% 0402 (1005 Metric)  SMD</t>
   </si>
   <si>
@@ -1044,6 +987,63 @@
   </si>
   <si>
     <t>* Can be replaced with other generic components with same or better specifications. Use only capacitors of type X5R, X7R, or NP0.</t>
+  </si>
+  <si>
+    <t>10K, 25ppm/°C 0402 (1005 Metric) Chip Resistor</t>
+  </si>
+  <si>
+    <t>133R, 25ppm/°C, 0402 (1005 Metric) Chip Resistor</t>
+  </si>
+  <si>
+    <t>3K9, 25ppm/°C, 0402 (1005 Metric) Chip Resistor</t>
+  </si>
+  <si>
+    <t>680R, 25ppm/°C 0402 (1005 Metric) Chip Resistor</t>
+  </si>
+  <si>
+    <t>CAP 33nF 16V ±5%, 0402 (1005 Metric) Chip Capacitor</t>
+  </si>
+  <si>
+    <t>CAP 100uF 16V ±20% 1210 (3225 Metric) SMD</t>
+  </si>
+  <si>
+    <t>CAP 47uF 16V ±20% 1210 (3225 Metric) Thickness 2.8mm SMD</t>
+  </si>
+  <si>
+    <t>CAP 22uF 6.3V ±10% 0805 (2012 Metric) Thickness 1.45mm SMD</t>
+  </si>
+  <si>
+    <t>CAP 10uF 10V ±20% 0603 (1608 Metric) Thickness 1mm SMD</t>
+  </si>
+  <si>
+    <t>CAP 1uF 16V ±20% 0402 (1005 Metric) Thickness 0.6mm SMD</t>
+  </si>
+  <si>
+    <t>CAP 10nF 25V ±5% 0402 (1005 Metric) Thickness 0.6mm SMD</t>
+  </si>
+  <si>
+    <t>CAP 4.7nF 50V ±20% 0402 (1005 Metric) Thickness 0.6mm SMD</t>
+  </si>
+  <si>
+    <t>CAP 2.2nF 50V ±5% 0402 (1005 Metric) Thickness 0.6mm SMD</t>
+  </si>
+  <si>
+    <t>CAP 1nF 50V ±5% 0402 (1005 Metric) Thickness 0.6mm SMD</t>
+  </si>
+  <si>
+    <t>CAP 470pF 50V ±5% 0402 (1005 Metric) Thickness 0.6mm SMD</t>
+  </si>
+  <si>
+    <t>CAP 120pF 50V ±5% 0402 (1005 Metric) Thickness 0.6mm SMD</t>
+  </si>
+  <si>
+    <t>CAP 56pF 50V ±5% 0402 (1005 Metric) Thickness 0.6mm SMD</t>
+  </si>
+  <si>
+    <t>CAP 10pF 50V ±5% 0402 (1005 Metric) Thickness 0.6mm SMD</t>
+  </si>
+  <si>
+    <t>SP Amp Zero Drift Amplifier Dual R-R I/O ±27.5V/55V 8-Pin MSOP</t>
   </si>
 </sst>
 </file>
@@ -1566,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F88"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1608,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1">
@@ -1619,7 +1619,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>167</v>
@@ -1628,16 +1628,16 @@
         <v>2</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1648,7 +1648,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>114</v>
@@ -1657,16 +1657,16 @@
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1680,20 +1680,20 @@
         <v>34</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E4" s="8">
         <v>8</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1713,14 +1713,14 @@
         <v>2</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1731,7 +1731,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>97</v>
@@ -1740,14 +1740,14 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1758,7 +1758,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>96</v>
@@ -1767,14 +1767,14 @@
         <v>2</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1794,14 +1794,14 @@
         <v>2</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1812,23 +1812,23 @@
         <v>15</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E9" s="8">
         <v>2</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1851,11 +1851,11 @@
         <v>168</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1878,11 +1878,11 @@
         <v>169</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1905,11 +1905,11 @@
         <v>170</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1929,14 +1929,14 @@
         <v>3</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>171</v>
+        <v>327</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1947,7 +1947,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>103</v>
@@ -1956,14 +1956,14 @@
         <v>2</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>172</v>
+        <v>328</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1974,23 +1974,23 @@
         <v>23</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E15" s="8">
         <v>27</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>173</v>
+        <v>329</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2001,7 +2001,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>104</v>
@@ -2010,14 +2010,14 @@
         <v>23</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2028,7 +2028,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>105</v>
@@ -2037,14 +2037,14 @@
         <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2064,14 +2064,14 @@
         <v>47</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2091,14 +2091,14 @@
         <v>9</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2109,7 +2109,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>108</v>
@@ -2118,14 +2118,14 @@
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2139,20 +2139,20 @@
         <v>43</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E21" s="8">
         <v>28</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>177</v>
+        <v>334</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2163,7 +2163,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>109</v>
@@ -2172,14 +2172,14 @@
         <v>2</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2190,7 +2190,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>110</v>
@@ -2199,14 +2199,14 @@
         <v>2</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2226,14 +2226,14 @@
         <v>1</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2244,7 +2244,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>112</v>
@@ -2253,14 +2253,14 @@
         <v>1</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2271,7 +2271,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>113</v>
@@ -2280,14 +2280,14 @@
         <v>4</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2298,7 +2298,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>115</v>
@@ -2307,14 +2307,14 @@
         <v>6</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2334,14 +2334,14 @@
         <v>2</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2352,7 +2352,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>117</v>
@@ -2361,14 +2361,14 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2379,23 +2379,23 @@
         <v>10</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E30" s="8">
         <v>19</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2406,23 +2406,23 @@
         <v>17</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E31" s="8">
         <v>2</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2433,23 +2433,23 @@
         <v>17</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E32" s="8">
         <v>2</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2469,14 +2469,14 @@
         <v>1</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2487,23 +2487,23 @@
         <v>17</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E34" s="8">
         <v>1</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>119</v>
@@ -2523,14 +2523,14 @@
         <v>2</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2550,14 +2550,14 @@
         <v>1</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2568,23 +2568,23 @@
         <v>17</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E37" s="8">
         <v>2</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2598,20 +2598,20 @@
         <v>48</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E38" s="8">
         <v>2</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2631,14 +2631,14 @@
         <v>1</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2649,23 +2649,23 @@
         <v>10</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E40" s="8">
         <v>34</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2679,20 +2679,20 @@
         <v>50</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E41" s="8">
         <v>24</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2712,14 +2712,14 @@
         <v>1</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2733,20 +2733,20 @@
         <v>52</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E43" s="8">
         <v>5</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2766,14 +2766,14 @@
         <v>1</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2793,14 +2793,14 @@
         <v>2</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2820,14 +2820,14 @@
         <v>4</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2847,14 +2847,14 @@
         <v>2</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2874,14 +2874,14 @@
         <v>2</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2901,14 +2901,14 @@
         <v>1</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2928,14 +2928,14 @@
         <v>1</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2955,14 +2955,14 @@
         <v>2</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2982,14 +2982,14 @@
         <v>1</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3009,14 +3009,14 @@
         <v>2</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3036,14 +3036,14 @@
         <v>2</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3063,14 +3063,14 @@
         <v>1</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3090,14 +3090,14 @@
         <v>1</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3108,7 +3108,7 @@
         <v>19</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>136</v>
@@ -3117,14 +3117,14 @@
         <v>1</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3135,23 +3135,23 @@
         <v>17</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E58" s="8">
         <v>1</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3171,14 +3171,14 @@
         <v>1</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3198,14 +3198,14 @@
         <v>6</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3225,14 +3225,14 @@
         <v>1</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3252,14 +3252,14 @@
         <v>8</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3279,14 +3279,14 @@
         <v>2</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3297,7 +3297,7 @@
         <v>24</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>142</v>
@@ -3306,16 +3306,16 @@
         <v>1</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3335,14 +3335,14 @@
         <v>1</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3362,14 +3362,14 @@
         <v>1</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3389,14 +3389,14 @@
         <v>2</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3416,14 +3416,14 @@
         <v>1</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3443,14 +3443,14 @@
         <v>1</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3470,14 +3470,14 @@
         <v>1</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G70" s="9" t="s">
         <v>76</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3497,14 +3497,14 @@
         <v>2</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3524,14 +3524,14 @@
         <v>2</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3551,14 +3551,14 @@
         <v>2</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3578,14 +3578,14 @@
         <v>3</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3605,14 +3605,14 @@
         <v>1</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3632,14 +3632,14 @@
         <v>1</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3659,14 +3659,14 @@
         <v>1</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3686,14 +3686,14 @@
         <v>1</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3713,14 +3713,14 @@
         <v>1</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3740,14 +3740,14 @@
         <v>2</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3767,14 +3767,14 @@
         <v>2</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3794,14 +3794,14 @@
         <v>5</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>264</v>
+        <v>339</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3821,14 +3821,14 @@
         <v>2</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3848,14 +3848,14 @@
         <v>2</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3872,14 +3872,14 @@
         <v>2</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3896,14 +3896,14 @@
         <v>2</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3920,14 +3920,14 @@
         <v>2</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3944,19 +3944,19 @@
         <v>3</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="120">
       <c r="I90" s="12" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
